--- a/tringalo_functional_test_plan.xlsx
+++ b/tringalo_functional_test_plan.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.boquera\Desktop\tringalo\testplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F58CB6-B247-4311-8836-0CC2823AD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07967585-08C4-4805-B631-8164DDBD0C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{2BD2D7DD-198F-419D-9A58-05755F1E3F00}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2BD2D7DD-198F-419D-9A58-05755F1E3F00}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="11" r:id="rId1"/>
     <sheet name="Auth" sheetId="12" r:id="rId2"/>
     <sheet name="Order" sheetId="13" r:id="rId3"/>
+    <sheet name="Travel" sheetId="14" r:id="rId4"/>
+    <sheet name="Messages" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
   <si>
     <t>Code</t>
   </si>
@@ -281,9 +283,6 @@
     <t>C21</t>
   </si>
   <si>
-    <t>Scraping fom displays properly</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -416,9 +415,6 @@
     <t xml:space="preserve">All the orders are displayed properly </t>
   </si>
   <si>
-    <t>If validation is successful, page is redirected to "Verify Profile" form or "Confirm Form"</t>
-  </si>
-  <si>
     <t>"Verify Profile" form is displayed succesfully</t>
   </si>
   <si>
@@ -434,9 +430,6 @@
     <t>When "Modify" button on a certain order is clicked, page redirects to "Edit Order" page</t>
   </si>
   <si>
-    <t>"Edit Order" page is displayed properly</t>
-  </si>
-  <si>
     <t>Edit Order</t>
   </si>
   <si>
@@ -458,10 +451,247 @@
     <t>My Orders</t>
   </si>
   <si>
-    <t>Search Travels</t>
-  </si>
-  <si>
     <t>When "In Line" is disabled in a given order, the order stops displaying in "Orders"  tab</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>If "Departure" field is empty, "City Departure" field should not allow any city</t>
+  </si>
+  <si>
+    <t>If "Departure" field is selected, "City Departure" field should  allow to select any city of the selected countrie</t>
+  </si>
+  <si>
+    <t>When "Calendar Icon" on "Date" field is clicked, a calendar is displayed</t>
+  </si>
+  <si>
+    <t>All fields should be validated on submit</t>
+  </si>
+  <si>
+    <t>If validation fails, an error message is displayed</t>
+  </si>
+  <si>
+    <t>If validation is successful, page is redirected to "Verify Profile" form or "Confirm Order" form</t>
+  </si>
+  <si>
+    <t>If validation succed, page is redirected to "Verify Profile" form or "Confirm Travel" form</t>
+  </si>
+  <si>
+    <t>If validation succed, page is redirected to "Confirm Travel" form</t>
+  </si>
+  <si>
+    <t>All information must be displayed (Travel date, origin and destination countires + flags)</t>
+  </si>
+  <si>
+    <t>All fiellds should be validated on submit</t>
+  </si>
+  <si>
+    <t>If validation succed, page is redirected to page with all the Orders with that certain itinerary</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>On nav dropdown menu, should exist a "My Travels" option</t>
+  </si>
+  <si>
+    <t>If "My Travels" is clicked, page is redirected to "My travels" page</t>
+  </si>
+  <si>
+    <t>My Travels</t>
+  </si>
+  <si>
+    <t>On "My Travels" page, all the users Travels are displayed properly</t>
+  </si>
+  <si>
+    <t>When "Modify" button on certain travel is clicked, page is redirected to "Edit Travel" form</t>
+  </si>
+  <si>
+    <t>Edit Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The form is properly displayed</t>
+  </si>
+  <si>
+    <t>If validation is succesful, page is redirected to "My Travels" page</t>
+  </si>
+  <si>
+    <t>When "In Line" is disabled in a given travel, the order stops displaying in "Travels"  tab for other users</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>Find Travelers</t>
+  </si>
+  <si>
+    <t>Scraping fom renders properly</t>
+  </si>
+  <si>
+    <t>List of travels</t>
+  </si>
+  <si>
+    <t>"Edit Order" page is rendered properly</t>
+  </si>
+  <si>
+    <t>"Delivery" form should render properly</t>
+  </si>
+  <si>
+    <t>"Verify Profile" form should render properly</t>
+  </si>
+  <si>
+    <t>"Confirm Travel" form should be rendered properly</t>
+  </si>
+  <si>
+    <t>"My Travels" page should be rendered properly</t>
+  </si>
+  <si>
+    <t>"My Travels" should render properly</t>
+  </si>
+  <si>
+    <t>When "Ask for delivery" button is clicked in some displayed travel, page is redirected to "Messages" page</t>
+  </si>
+  <si>
+    <t>"Messages" page should render properly</t>
+  </si>
+  <si>
+    <t>"Find Travelers" page should rendered properly</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>The most recent chats should appear above the old chats</t>
+  </si>
+  <si>
+    <t>The product should appear above the chat windows</t>
+  </si>
+  <si>
+    <t>The name of the other user and profile photo should appear above the chat windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a new message is recived, the notification should appear on the messages tab of the nav menu </t>
+  </si>
+  <si>
+    <t>When the other user recives the message, it should appear a blue double tick besides the message</t>
   </si>
 </sst>
 </file>
@@ -839,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD6814-7E25-413E-A59B-1E8B09B221C2}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +1211,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B4E789-939F-457D-8EE0-0073BE99EFD1}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,10 +1478,10 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,10 +1489,10 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,10 +1500,10 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,10 +1511,10 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,10 +1522,10 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,10 +1533,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,10 +1544,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,10 +1555,10 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,10 +1566,10 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,10 +1577,10 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,10 +1588,10 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,10 +1599,10 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,10 +1610,10 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,10 +1621,10 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,10 +1632,10 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,10 +1643,10 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,10 +1654,10 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,10 +1665,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,10 +1676,10 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,10 +1687,10 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,245 +1698,741 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E331C9-FD6A-4D0B-968A-ECDED63A56FF}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="96.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD1194D-05B9-40D8-BED7-2C5613A57F8D}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="102.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
